--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976918</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976918</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265029062.524203</v>
+        <v>49864103.63795121</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11438.83784113929</v>
+        <v>1106937.085651601</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22485.00526026514</v>
+        <v>2145923.143925991</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33531.17267939098</v>
+        <v>3184909.202200382</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45729.39174165325</v>
+        <v>4161471.552546539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57927.61080391549</v>
+        <v>5138033.902892697</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70125.82986617774</v>
+        <v>6114596.25323885</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82324.04892843998</v>
+        <v>7091158.603585002</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94522.26799070225</v>
+        <v>8067720.953931154</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106720.4870529645</v>
+        <v>9044283.304277305</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118216.1286466463</v>
+        <v>10053409.1763204</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129384.3073383994</v>
+        <v>11092395.23459479</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140552.4860301524</v>
+        <v>12131381.29286919</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151720.6647219054</v>
+        <v>13170367.35114358</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163918.8837841677</v>
+        <v>14146929.70148975</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176965.4086869018</v>
+        <v>15033614.39800069</v>
       </c>
     </row>
   </sheetData>
